--- a/biology/Médecine/District_hospitalier_de_Finlande-Propre/District_hospitalier_de_Finlande-Propre.xlsx
+++ b/biology/Médecine/District_hospitalier_de_Finlande-Propre/District_hospitalier_de_Finlande-Propre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le District hospitalier de Finlande-Propre (finnois : Varsinais-Suomen sairaanhoitopiiri, sigle VSSHP) est un district hospitalier de la région de Finlande-Propre[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le District hospitalier de Finlande-Propre (finnois : Varsinais-Suomen sairaanhoitopiiri, sigle VSSHP) est un district hospitalier de la région de Finlande-Propre.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le district hospitalier de Finlande-Propre offre ses services de santé à environ 470 000 habitants.
 Plus de 200 000 personnes utilisent chaque année ses services.
@@ -543,9 +557,11 @@
           <t>Municipalités membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des municipalités membres de VSSHP est[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des municipalités membres de VSSHP est:
 Aura
 Kaarina
 Kimitoön
@@ -602,9 +618,11 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les établissements hospitaliers de VSSHP sont les établissements suivants[1]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les établissements hospitaliers de VSSHP sont les établissements suivants:
 Hôpital de Halikko
 Hôpital de Turunmaa
 Tyks  Centre hospitalier universitaire de Turku
